--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.527126666666668</v>
+        <v>8.644702000000001</v>
       </c>
       <c r="H2">
-        <v>19.58138</v>
+        <v>25.934106</v>
       </c>
       <c r="I2">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="J2">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.62053</v>
+        <v>9.886733333333334</v>
       </c>
       <c r="N2">
-        <v>22.86159</v>
+        <v>29.6602</v>
       </c>
       <c r="O2">
-        <v>0.2214906134136664</v>
+        <v>0.2800365922084035</v>
       </c>
       <c r="P2">
-        <v>0.2214906134136664</v>
+        <v>0.2800365922084035</v>
       </c>
       <c r="Q2">
-        <v>49.74016457713333</v>
+        <v>85.46786342013334</v>
       </c>
       <c r="R2">
-        <v>447.6614811942001</v>
+        <v>769.2107707812</v>
       </c>
       <c r="S2">
-        <v>0.04718617322840424</v>
+        <v>0.07447480680858819</v>
       </c>
       <c r="T2">
-        <v>0.04718617322840424</v>
+        <v>0.07447480680858819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.527126666666668</v>
+        <v>8.644702000000001</v>
       </c>
       <c r="H3">
-        <v>19.58138</v>
+        <v>25.934106</v>
       </c>
       <c r="I3">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="J3">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.340016666666669</v>
+        <v>9.340016666666665</v>
       </c>
       <c r="N3">
         <v>28.02005</v>
       </c>
       <c r="O3">
-        <v>0.271467472839011</v>
+        <v>0.2645511262738982</v>
       </c>
       <c r="P3">
-        <v>0.2714674728390109</v>
+        <v>0.2645511262738982</v>
       </c>
       <c r="Q3">
-        <v>60.96347185211113</v>
+        <v>80.74166075836666</v>
       </c>
       <c r="R3">
-        <v>548.6712466690002</v>
+        <v>726.6749468252999</v>
       </c>
       <c r="S3">
-        <v>0.0578332011539245</v>
+        <v>0.07035649828783963</v>
       </c>
       <c r="T3">
-        <v>0.05783320115392449</v>
+        <v>0.07035649828783963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.527126666666668</v>
+        <v>8.644702000000001</v>
       </c>
       <c r="H4">
-        <v>19.58138</v>
+        <v>25.934106</v>
       </c>
       <c r="I4">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="J4">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.475014333333332</v>
+        <v>9.811931666666666</v>
       </c>
       <c r="N4">
-        <v>28.425043</v>
+        <v>29.435795</v>
       </c>
       <c r="O4">
-        <v>0.2753911784079691</v>
+        <v>0.277917873808847</v>
       </c>
       <c r="P4">
-        <v>0.2753911784079691</v>
+        <v>0.277917873808847</v>
       </c>
       <c r="Q4">
-        <v>61.84461872214889</v>
+        <v>84.82122530269667</v>
       </c>
       <c r="R4">
-        <v>556.60156849934</v>
+        <v>763.39102772427</v>
       </c>
       <c r="S4">
-        <v>0.05866910407468769</v>
+        <v>0.07391134064781107</v>
       </c>
       <c r="T4">
-        <v>0.05866910407468769</v>
+        <v>0.07391134064781107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.527126666666668</v>
+        <v>8.644702000000001</v>
       </c>
       <c r="H5">
-        <v>19.58138</v>
+        <v>25.934106</v>
       </c>
       <c r="I5">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="J5">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.970095666666666</v>
+        <v>6.266466333333334</v>
       </c>
       <c r="N5">
-        <v>23.910287</v>
+        <v>18.799399</v>
       </c>
       <c r="O5">
-        <v>0.2316507353393536</v>
+        <v>0.1774944077088512</v>
       </c>
       <c r="P5">
-        <v>0.2316507353393536</v>
+        <v>0.1774944077088512</v>
       </c>
       <c r="Q5">
-        <v>52.02182396178445</v>
+        <v>54.17173404469934</v>
       </c>
       <c r="R5">
-        <v>468.1964156560601</v>
+        <v>487.545606402294</v>
       </c>
       <c r="S5">
-        <v>0.04935067702302692</v>
+        <v>0.04720405151153956</v>
       </c>
       <c r="T5">
-        <v>0.04935067702302692</v>
+        <v>0.04720405151153956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>32.334338</v>
       </c>
       <c r="I6">
-        <v>0.351787262211666</v>
+        <v>0.331579210752513</v>
       </c>
       <c r="J6">
-        <v>0.351787262211666</v>
+        <v>0.3315792107525131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.62053</v>
+        <v>9.886733333333334</v>
       </c>
       <c r="N6">
-        <v>22.86159</v>
+        <v>29.6602</v>
       </c>
       <c r="O6">
-        <v>0.2214906134136664</v>
+        <v>0.2800365922084035</v>
       </c>
       <c r="P6">
-        <v>0.2214906134136664</v>
+        <v>0.2800365922084035</v>
       </c>
       <c r="Q6">
-        <v>82.13493091971333</v>
+        <v>106.5603257719556</v>
       </c>
       <c r="R6">
-        <v>739.21437827742</v>
+        <v>959.0429319476002</v>
       </c>
       <c r="S6">
-        <v>0.0779175764983762</v>
+        <v>0.09285431222628578</v>
       </c>
       <c r="T6">
-        <v>0.07791757649837619</v>
+        <v>0.0928543122262858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>32.334338</v>
       </c>
       <c r="I7">
-        <v>0.351787262211666</v>
+        <v>0.331579210752513</v>
       </c>
       <c r="J7">
-        <v>0.351787262211666</v>
+        <v>0.3315792107525131</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.340016666666669</v>
+        <v>9.340016666666665</v>
       </c>
       <c r="N7">
         <v>28.02005</v>
       </c>
       <c r="O7">
-        <v>0.271467472839011</v>
+        <v>0.2645511262738982</v>
       </c>
       <c r="P7">
-        <v>0.2714674728390109</v>
+        <v>0.2645511262738982</v>
       </c>
       <c r="Q7">
         <v>100.6677519418778</v>
       </c>
       <c r="R7">
-        <v>906.0097674769003</v>
+        <v>906.0097674769</v>
       </c>
       <c r="S7">
-        <v>0.09549879904955547</v>
+        <v>0.08771965365358758</v>
       </c>
       <c r="T7">
-        <v>0.09549879904955545</v>
+        <v>0.0877196536535876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>32.334338</v>
       </c>
       <c r="I8">
-        <v>0.351787262211666</v>
+        <v>0.331579210752513</v>
       </c>
       <c r="J8">
-        <v>0.351787262211666</v>
+        <v>0.3315792107525131</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.475014333333332</v>
+        <v>9.811931666666666</v>
       </c>
       <c r="N8">
-        <v>28.425043</v>
+        <v>29.435795</v>
       </c>
       <c r="O8">
-        <v>0.2753911784079691</v>
+        <v>0.277917873808847</v>
       </c>
       <c r="P8">
-        <v>0.2753911784079691</v>
+        <v>0.277917873808847</v>
       </c>
       <c r="Q8">
-        <v>102.1227720029482</v>
+        <v>105.7541049809678</v>
       </c>
       <c r="R8">
-        <v>919.104948026534</v>
+        <v>951.78694482871</v>
       </c>
       <c r="S8">
-        <v>0.09687910868938393</v>
+        <v>0.09215178925155398</v>
       </c>
       <c r="T8">
-        <v>0.09687910868938393</v>
+        <v>0.092151789251554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>32.334338</v>
       </c>
       <c r="I9">
-        <v>0.351787262211666</v>
+        <v>0.331579210752513</v>
       </c>
       <c r="J9">
-        <v>0.351787262211666</v>
+        <v>0.3315792107525131</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.970095666666666</v>
+        <v>6.266466333333334</v>
       </c>
       <c r="N9">
-        <v>23.910287</v>
+        <v>18.799399</v>
       </c>
       <c r="O9">
-        <v>0.2316507353393536</v>
+        <v>0.1774944077088512</v>
       </c>
       <c r="P9">
-        <v>0.2316507353393536</v>
+        <v>0.1774944077088512</v>
       </c>
       <c r="Q9">
-        <v>85.90258905944511</v>
+        <v>67.54068016254023</v>
       </c>
       <c r="R9">
-        <v>773.123301535006</v>
+        <v>607.8661214628621</v>
       </c>
       <c r="S9">
-        <v>0.08149177797435044</v>
+        <v>0.05885345562108565</v>
       </c>
       <c r="T9">
-        <v>0.08149177797435044</v>
+        <v>0.05885345562108566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.773344333333333</v>
+        <v>7.273908666666667</v>
       </c>
       <c r="H10">
-        <v>20.320033</v>
+        <v>21.821726</v>
       </c>
       <c r="I10">
-        <v>0.2210754640197275</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="J10">
-        <v>0.2210754640197274</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.62053</v>
+        <v>9.886733333333334</v>
       </c>
       <c r="N10">
-        <v>22.86159</v>
+        <v>29.6602</v>
       </c>
       <c r="O10">
-        <v>0.2214906134136664</v>
+        <v>0.2800365922084035</v>
       </c>
       <c r="P10">
-        <v>0.2214906134136664</v>
+        <v>0.2800365922084035</v>
       </c>
       <c r="Q10">
-        <v>51.61647369249666</v>
+        <v>71.91519527835557</v>
       </c>
       <c r="R10">
-        <v>464.5482632324699</v>
+        <v>647.2367575052001</v>
       </c>
       <c r="S10">
-        <v>0.04896614013644037</v>
+        <v>0.06266531138879228</v>
       </c>
       <c r="T10">
-        <v>0.04896614013644036</v>
+        <v>0.06266531138879228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.773344333333333</v>
+        <v>7.273908666666667</v>
       </c>
       <c r="H11">
-        <v>20.320033</v>
+        <v>21.821726</v>
       </c>
       <c r="I11">
-        <v>0.2210754640197275</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="J11">
-        <v>0.2210754640197274</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.340016666666669</v>
+        <v>9.340016666666665</v>
       </c>
       <c r="N11">
         <v>28.02005</v>
       </c>
       <c r="O11">
-        <v>0.271467472839011</v>
+        <v>0.2645511262738982</v>
       </c>
       <c r="P11">
-        <v>0.2714674728390109</v>
+        <v>0.2645511262738982</v>
       </c>
       <c r="Q11">
-        <v>63.26314896240557</v>
+        <v>67.93842817847778</v>
       </c>
       <c r="R11">
-        <v>569.3683406616501</v>
+        <v>611.4458536063</v>
       </c>
       <c r="S11">
-        <v>0.06001479752414711</v>
+        <v>0.05920004444944837</v>
       </c>
       <c r="T11">
-        <v>0.06001479752414709</v>
+        <v>0.05920004444944837</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.773344333333333</v>
+        <v>7.273908666666667</v>
       </c>
       <c r="H12">
-        <v>20.320033</v>
+        <v>21.821726</v>
       </c>
       <c r="I12">
-        <v>0.2210754640197275</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="J12">
-        <v>0.2210754640197274</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.475014333333332</v>
+        <v>9.811931666666666</v>
       </c>
       <c r="N12">
-        <v>28.425043</v>
+        <v>29.435795</v>
       </c>
       <c r="O12">
-        <v>0.2753911784079691</v>
+        <v>0.277917873808847</v>
       </c>
       <c r="P12">
-        <v>0.2753911784079691</v>
+        <v>0.277917873808847</v>
       </c>
       <c r="Q12">
-        <v>64.17753464293544</v>
+        <v>71.37109478690778</v>
       </c>
       <c r="R12">
-        <v>577.5978117864189</v>
+        <v>642.3398530821701</v>
       </c>
       <c r="S12">
-        <v>0.06088223255348132</v>
+        <v>0.06219119424857737</v>
       </c>
       <c r="T12">
-        <v>0.06088223255348132</v>
+        <v>0.06219119424857737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.773344333333333</v>
+        <v>7.273908666666667</v>
       </c>
       <c r="H13">
-        <v>20.320033</v>
+        <v>21.821726</v>
       </c>
       <c r="I13">
-        <v>0.2210754640197275</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="J13">
-        <v>0.2210754640197274</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.970095666666666</v>
+        <v>6.266466333333334</v>
       </c>
       <c r="N13">
-        <v>23.910287</v>
+        <v>18.799399</v>
       </c>
       <c r="O13">
-        <v>0.2316507353393536</v>
+        <v>0.1774944077088512</v>
       </c>
       <c r="P13">
-        <v>0.2316507353393536</v>
+        <v>0.1774944077088512</v>
       </c>
       <c r="Q13">
-        <v>53.98420231994122</v>
+        <v>45.58170377140823</v>
       </c>
       <c r="R13">
-        <v>485.857820879471</v>
+        <v>410.2353339426741</v>
       </c>
       <c r="S13">
-        <v>0.05121229380565868</v>
+        <v>0.03971888902492735</v>
       </c>
       <c r="T13">
-        <v>0.05121229380565867</v>
+        <v>0.03971888902492735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.559571333333333</v>
+        <v>5.80867</v>
       </c>
       <c r="H14">
-        <v>19.678714</v>
+        <v>17.42601</v>
       </c>
       <c r="I14">
-        <v>0.2140981182885632</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="J14">
-        <v>0.2140981182885631</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.62053</v>
+        <v>9.886733333333334</v>
       </c>
       <c r="N14">
-        <v>22.86159</v>
+        <v>29.6602</v>
       </c>
       <c r="O14">
-        <v>0.2214906134136664</v>
+        <v>0.2800365922084035</v>
       </c>
       <c r="P14">
-        <v>0.2214906134136664</v>
+        <v>0.2800365922084035</v>
       </c>
       <c r="Q14">
-        <v>49.98741013280667</v>
+        <v>57.42877131133334</v>
       </c>
       <c r="R14">
-        <v>449.88669119526</v>
+        <v>516.8589418020001</v>
       </c>
       <c r="S14">
-        <v>0.04742072355044556</v>
+        <v>0.05004216178473728</v>
       </c>
       <c r="T14">
-        <v>0.04742072355044555</v>
+        <v>0.05004216178473729</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.559571333333333</v>
+        <v>5.80867</v>
       </c>
       <c r="H15">
-        <v>19.678714</v>
+        <v>17.42601</v>
       </c>
       <c r="I15">
-        <v>0.2140981182885632</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="J15">
-        <v>0.2140981182885631</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.340016666666669</v>
+        <v>9.340016666666665</v>
       </c>
       <c r="N15">
         <v>28.02005</v>
       </c>
       <c r="O15">
-        <v>0.271467472839011</v>
+        <v>0.2645511262738982</v>
       </c>
       <c r="P15">
-        <v>0.2714674728390109</v>
+        <v>0.2645511262738982</v>
       </c>
       <c r="Q15">
-        <v>61.26650557952224</v>
+        <v>54.25307461116666</v>
       </c>
       <c r="R15">
-        <v>551.3985502157001</v>
+        <v>488.2776715005</v>
       </c>
       <c r="S15">
-        <v>0.05812067511138388</v>
+        <v>0.04727492988302262</v>
       </c>
       <c r="T15">
-        <v>0.05812067511138386</v>
+        <v>0.04727492988302263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.559571333333333</v>
+        <v>5.80867</v>
       </c>
       <c r="H16">
-        <v>19.678714</v>
+        <v>17.42601</v>
       </c>
       <c r="I16">
-        <v>0.2140981182885632</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="J16">
-        <v>0.2140981182885631</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.475014333333332</v>
+        <v>9.811931666666666</v>
       </c>
       <c r="N16">
-        <v>28.425043</v>
+        <v>29.435795</v>
       </c>
       <c r="O16">
-        <v>0.2753911784079691</v>
+        <v>0.277917873808847</v>
       </c>
       <c r="P16">
-        <v>0.2753911784079691</v>
+        <v>0.277917873808847</v>
       </c>
       <c r="Q16">
-        <v>62.15203240385577</v>
+        <v>56.99427311421667</v>
       </c>
       <c r="R16">
-        <v>559.3682916347019</v>
+        <v>512.94845802795</v>
       </c>
       <c r="S16">
-        <v>0.05896073309041618</v>
+        <v>0.04966354966090453</v>
       </c>
       <c r="T16">
-        <v>0.05896073309041617</v>
+        <v>0.04966354966090454</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.559571333333333</v>
+        <v>5.80867</v>
       </c>
       <c r="H17">
-        <v>19.678714</v>
+        <v>17.42601</v>
       </c>
       <c r="I17">
-        <v>0.2140981182885632</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="J17">
-        <v>0.2140981182885631</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.970095666666666</v>
+        <v>6.266466333333334</v>
       </c>
       <c r="N17">
-        <v>23.910287</v>
+        <v>18.799399</v>
       </c>
       <c r="O17">
-        <v>0.2316507353393536</v>
+        <v>0.1774944077088512</v>
       </c>
       <c r="P17">
-        <v>0.2316507353393536</v>
+        <v>0.1774944077088512</v>
       </c>
       <c r="Q17">
-        <v>52.28041105899089</v>
+        <v>36.39983499644334</v>
       </c>
       <c r="R17">
-        <v>470.523699530918</v>
+        <v>327.5985149679901</v>
       </c>
       <c r="S17">
-        <v>0.04959598653631757</v>
+        <v>0.03171801155129865</v>
       </c>
       <c r="T17">
-        <v>0.04959598653631756</v>
+        <v>0.03171801155129866</v>
       </c>
     </row>
   </sheetData>
